--- a/excel/finished/wg8#高炉/2020-6/8高炉铁水一级品率精益统计表.xlsx
+++ b/excel/finished/wg8#高炉/2020-6/8高炉铁水一级品率精益统计表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYSD 12\Desktop\统计表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE61CA-2A4A-4A61-AD8D-08912D65D836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE0AF1-F6EC-41FE-818A-726EBE9C8BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
     <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -884,6 +881,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -921,25 +933,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1433,15 +1430,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'[1]炉温合格率（年）'!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>本期目标</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>本期目标</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1468,93 +1457,87 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'[1]炉温合格率（年）'!$B$5:$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>一月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>二月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>三月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>四月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>五月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>六月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>七月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>八月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>九月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>十月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>十一月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>十二月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>一月</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>二月</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>三月</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>四月</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>五月</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>六月</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>七月</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>八月</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>九月</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>十月</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>十一月</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>十二月</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'[1]炉温合格率（年）'!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>84.23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84.23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84.23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>84.23</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>84.23</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>84.23</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>84.23</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>84.23</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>80</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1567,15 +1550,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'[1]炉温合格率（年）'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>本月实际值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>本月实际值</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1602,93 +1577,87 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'[1]炉温合格率（年）'!$B$5:$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>一月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>二月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>三月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>四月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>五月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>六月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>七月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>八月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>九月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>十月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>十一月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>十二月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>一月</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>二月</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>三月</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>四月</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>五月</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>六月</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>七月</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>八月</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>九月</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>十月</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>十一月</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>十二月</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'[1]炉温合格率（年）'!$D$5:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>75.953079178885602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61.510791366906503</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.1666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.285714285714306</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.428571428571402</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>75.953079178885602</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>61.510791366906503</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>79.1666666666667</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>89.285714285714306</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>89.428571428571402</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2516,162 +2485,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="炉温合格率（月）"/>
-      <sheetName val="炉温合格率（年）"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>本期目标</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>本月实际值</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>一月</v>
-          </cell>
-          <cell r="C5">
-            <v>84.23</v>
-          </cell>
-          <cell r="D5">
-            <v>75.953079178885602</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>二月</v>
-          </cell>
-          <cell r="C6">
-            <v>84.23</v>
-          </cell>
-          <cell r="D6">
-            <v>61.510791366906503</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>三月</v>
-          </cell>
-          <cell r="C7">
-            <v>84.23</v>
-          </cell>
-          <cell r="D7">
-            <v>79.1666666666667</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>四月</v>
-          </cell>
-          <cell r="C8">
-            <v>84.23</v>
-          </cell>
-          <cell r="D8">
-            <v>89.285714285714306</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>五月</v>
-          </cell>
-          <cell r="C9">
-            <v>84.23</v>
-          </cell>
-          <cell r="D9">
-            <v>89.428571428571402</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>六月</v>
-          </cell>
-          <cell r="C10">
-            <v>80</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>七月</v>
-          </cell>
-          <cell r="C11">
-            <v>80</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>八月</v>
-          </cell>
-          <cell r="C12">
-            <v>80</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>九月</v>
-          </cell>
-          <cell r="C13">
-            <v>80</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>十月</v>
-          </cell>
-          <cell r="C14">
-            <v>80</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>十一月</v>
-          </cell>
-          <cell r="C15">
-            <v>80</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>十二月</v>
-          </cell>
-          <cell r="C16">
-            <v>80</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2961,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2975,38 +2788,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
     </row>
     <row r="2" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
@@ -3023,121 +2836,121 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="72" t="s">
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="68" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68" t="s">
+      <c r="N4" s="57"/>
+      <c r="O4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68" t="s">
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68" t="s">
+      <c r="R4" s="57"/>
+      <c r="S4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68" t="s">
+      <c r="T4" s="57"/>
+      <c r="U4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68" t="s">
+      <c r="V4" s="57"/>
+      <c r="W4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68" t="s">
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68" t="s">
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68" t="s">
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="73"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="59"/>
     </row>
     <row r="5" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="19" t="s">
         <v>22</v>
       </c>
@@ -3204,10 +3017,10 @@
       <c r="AD5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="73"/>
+      <c r="AE5" s="59"/>
     </row>
     <row r="6" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="20" t="s">
         <v>24</v>
       </c>
@@ -3346,7 +3159,10 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="34"/>
+      <c r="H8" s="34" t="str">
+        <f t="shared" ref="H8:H40" si="1">IF(ISERROR(G8/F8),"",G8-F8)</f>
+        <v/>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="41">
         <f>IF(ISERROR(I8/$H8),0,I8/$H8)</f>
@@ -3423,7 +3239,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="35"/>
       <c r="H9" s="34" t="str">
-        <f t="shared" ref="H9:H40" si="1">IF(ISERROR(G9/F9),"",G9-F9)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I9" s="23"/>
@@ -6247,230 +6063,239 @@
       <c r="AE42" s="33"/>
     </row>
     <row r="43" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
     </row>
     <row r="44" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="57"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="62"/>
     </row>
     <row r="45" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="60"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="65"/>
     </row>
     <row r="46" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="60"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="65"/>
     </row>
     <row r="47" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="60"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
     </row>
     <row r="48" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="60"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="65"/>
     </row>
     <row r="49" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="60"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="65"/>
     </row>
     <row r="50" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="60"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="65"/>
     </row>
     <row r="51" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="60"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="65"/>
     </row>
     <row r="52" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="60"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="65"/>
     </row>
     <row r="53" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="60"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="65"/>
     </row>
     <row r="54" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="58"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="60"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="65"/>
     </row>
     <row r="55" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="60"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="65"/>
     </row>
     <row r="56" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="60"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="65"/>
     </row>
     <row r="57" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="60"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="60"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="65"/>
     </row>
     <row r="59" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="63"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B44:L59"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="I3:P3"/>
     <mergeCell ref="Q3:Z3"/>
@@ -6487,15 +6312,6 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="B44:L59"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6508,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6646,7 +6462,10 @@
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="46">
+        <f>$C$2</f>
+        <v>80</v>
+      </c>
       <c r="D6" s="47" t="str">
         <f>IF(ISERROR(F6/G6),"",F6/G6*100)</f>
         <v/>
@@ -6665,13 +6484,16 @@
       <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="46">
+        <f t="shared" ref="C7:C17" si="0">$C$2</f>
+        <v>80</v>
+      </c>
       <c r="D7" s="47" t="str">
-        <f t="shared" ref="D7:D17" si="0">IF(ISERROR(F7/G7),"",F7/G7*100)</f>
+        <f t="shared" ref="D7:D17" si="1">IF(ISERROR(F7/G7),"",F7/G7*100)</f>
         <v/>
       </c>
       <c r="E7" s="48" t="str">
-        <f t="shared" ref="E7:E18" si="1">IF(ISERROR(D7/C7),"",IF(D7&gt;=C7,"√","×"))</f>
+        <f t="shared" ref="E7:E18" si="2">IF(ISERROR(D7/C7),"",IF(D7&gt;=C7,"√","×"))</f>
         <v/>
       </c>
       <c r="F7" s="48"/>
@@ -6684,13 +6506,16 @@
       <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D8" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E8" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F8" s="48"/>
@@ -6703,13 +6528,16 @@
       <c r="B9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D9" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E9" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F9" s="48"/>
@@ -6722,13 +6550,16 @@
       <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D10" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E10" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F10" s="48"/>
@@ -6741,13 +6572,16 @@
       <c r="B11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D11" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E11" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F11" s="48"/>
@@ -6760,13 +6594,16 @@
       <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D12" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E12" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F12" s="48"/>
@@ -6779,13 +6616,16 @@
       <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D13" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F13" s="48"/>
@@ -6798,13 +6638,16 @@
       <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D14" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E14" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F14" s="48"/>
@@ -6817,13 +6660,16 @@
       <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D15" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F15" s="48"/>
@@ -6836,13 +6682,16 @@
       <c r="B16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D16" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E16" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F16" s="48"/>
@@ -6855,13 +6704,16 @@
       <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D17" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E17" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F17" s="48"/>
@@ -6874,17 +6726,17 @@
       <c r="B18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="50" t="e">
+      <c r="C18" s="50">
         <f>AVERAGE(C6:C17)</f>
-        <v>#DIV/0!</v>
+        <v>80</v>
       </c>
       <c r="D18" s="51">
-        <f t="shared" ref="D18" si="2">IF(G18=0,0,F18/G18*100)</f>
+        <f t="shared" ref="D18" si="3">IF(G18=0,0,F18/G18*100)</f>
         <v>0</v>
       </c>
       <c r="E18" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>×</v>
       </c>
       <c r="F18" s="52">
         <f>SUM(F6:F17)</f>

--- a/excel/finished/wg8#高炉/2020-6/8高炉铁水一级品率精益统计表.xlsx
+++ b/excel/finished/wg8#高炉/2020-6/8高炉铁水一级品率精益统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE0AF1-F6EC-41FE-818A-726EBE9C8BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD35F030-6BF9-48F7-A861-EE238489C995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>月</t>
   </si>
@@ -208,6 +208,10 @@
     <t>version</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>目标值</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -713,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,63 +885,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,6 +949,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,99 +1007,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>76</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2774,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2788,38 +2705,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
     </row>
     <row r="2" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
@@ -2831,126 +2748,124 @@
       <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17">
-        <v>76</v>
-      </c>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56" t="s">
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="58" t="s">
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="72" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="57" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57" t="s">
+      <c r="N4" s="68"/>
+      <c r="O4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57" t="s">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57" t="s">
+      <c r="R4" s="68"/>
+      <c r="S4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57" t="s">
+      <c r="T4" s="68"/>
+      <c r="U4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57" t="s">
+      <c r="V4" s="68"/>
+      <c r="W4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57" t="s">
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57" t="s">
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57" t="s">
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="59"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="73"/>
     </row>
     <row r="5" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="73"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="19" t="s">
         <v>22</v>
       </c>
@@ -3017,10 +2932,10 @@
       <c r="AD5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="59"/>
+      <c r="AE5" s="73"/>
     </row>
     <row r="6" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="71"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="20" t="s">
         <v>24</v>
       </c>
@@ -3107,7 +3022,9 @@
     </row>
     <row r="7" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="77" t="s">
+        <v>56</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
       <c r="F7" s="20" t="s">
@@ -3145,10 +3062,7 @@
       <c r="B8" s="22">
         <v>1</v>
       </c>
-      <c r="C8" s="43">
-        <f t="shared" ref="C8:C41" si="0">$E$2</f>
-        <v>76</v>
-      </c>
+      <c r="C8" s="43"/>
       <c r="D8" s="37" t="str">
         <f>IF(ISERROR(F8/G8),"",F8/G8*100)</f>
         <v/>
@@ -3160,7 +3074,7 @@
       <c r="F8" s="34"/>
       <c r="G8" s="35"/>
       <c r="H8" s="34" t="str">
-        <f t="shared" ref="H8:H40" si="1">IF(ISERROR(G8/F8),"",G8-F8)</f>
+        <f t="shared" ref="H8:H40" si="0">IF(ISERROR(G8/F8),"",G8-F8)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -3224,10 +3138,7 @@
       <c r="B9" s="22">
         <v>2</v>
       </c>
-      <c r="C9" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="37" t="str">
         <f>IF(ISERROR(F9/G9),"",F9/G9*100)</f>
         <v/>
@@ -3239,62 +3150,62 @@
       <c r="F9" s="34"/>
       <c r="G9" s="35"/>
       <c r="H9" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="41">
-        <f t="shared" ref="J9:J40" si="2">IF(ISERROR(I9/$H9),0,I9/$H9)</f>
+        <f t="shared" ref="J9:J40" si="1">IF(ISERROR(I9/$H9),0,I9/$H9)</f>
         <v>0</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="41">
-        <f t="shared" ref="L9:L40" si="3">IF(ISERROR(K9/$H9),0,K9/$H9)</f>
+        <f t="shared" ref="L9:L40" si="2">IF(ISERROR(K9/$H9),0,K9/$H9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="41">
-        <f t="shared" ref="N9:N40" si="4">IF(ISERROR(M9/$H9),0,M9/$H9)</f>
+        <f t="shared" ref="N9:N40" si="3">IF(ISERROR(M9/$H9),0,M9/$H9)</f>
         <v>0</v>
       </c>
       <c r="O9" s="28"/>
       <c r="P9" s="41">
-        <f t="shared" ref="P9:P40" si="5">IF(ISERROR(O9/$H9),0,O9/$H9)</f>
+        <f t="shared" ref="P9:P40" si="4">IF(ISERROR(O9/$H9),0,O9/$H9)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="41">
-        <f t="shared" ref="R9:R40" si="6">IF(ISERROR(Q9/$H9),0,Q9/$H9)</f>
+        <f t="shared" ref="R9:R40" si="5">IF(ISERROR(Q9/$H9),0,Q9/$H9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="28"/>
       <c r="T9" s="41">
-        <f t="shared" ref="T9:T40" si="7">IF(ISERROR(S9/$H9),0,S9/$H9)</f>
+        <f t="shared" ref="T9:T40" si="6">IF(ISERROR(S9/$H9),0,S9/$H9)</f>
         <v>0</v>
       </c>
       <c r="U9" s="24"/>
       <c r="V9" s="41">
-        <f t="shared" ref="V9:V40" si="8">IF(ISERROR(U9/$H9),0,U9/$H9)</f>
+        <f t="shared" ref="V9:V40" si="7">IF(ISERROR(U9/$H9),0,U9/$H9)</f>
         <v>0</v>
       </c>
       <c r="W9" s="24"/>
       <c r="X9" s="41">
-        <f t="shared" ref="X9:X40" si="9">IF(ISERROR(W9/$H9),0,W9/$H9)</f>
+        <f t="shared" ref="X9:X40" si="8">IF(ISERROR(W9/$H9),0,W9/$H9)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="24"/>
       <c r="Z9" s="41">
-        <f t="shared" ref="Z9:Z40" si="10">IF(ISERROR(Y9/$H9),0,Y9/$H9)</f>
+        <f t="shared" ref="Z9:Z40" si="9">IF(ISERROR(Y9/$H9),0,Y9/$H9)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="28"/>
       <c r="AB9" s="41">
-        <f t="shared" ref="AB9:AB40" si="11">IF(ISERROR(AA9/$H9),0,AA9/$H9)</f>
+        <f t="shared" ref="AB9:AB40" si="10">IF(ISERROR(AA9/$H9),0,AA9/$H9)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="24"/>
       <c r="AD9" s="41">
-        <f t="shared" ref="AD9:AD40" si="12">IF(ISERROR(AC9/$H9),0,AC9/$H9)</f>
+        <f t="shared" ref="AD9:AD40" si="11">IF(ISERROR(AC9/$H9),0,AC9/$H9)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="32"/>
@@ -3303,12 +3214,9 @@
       <c r="B10" s="22">
         <v>3</v>
       </c>
-      <c r="C10" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C10" s="43"/>
       <c r="D10" s="37" t="str">
-        <f t="shared" ref="D10:D41" si="13">IF(ISERROR(F10/G10),"",F10/G10*100)</f>
+        <f t="shared" ref="D10:D41" si="12">IF(ISERROR(F10/G10),"",F10/G10*100)</f>
         <v/>
       </c>
       <c r="E10" s="38" t="str">
@@ -3318,62 +3226,62 @@
       <c r="F10" s="34"/>
       <c r="G10" s="36"/>
       <c r="H10" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="28"/>
       <c r="P10" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S10" s="28"/>
       <c r="T10" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U10" s="24"/>
       <c r="V10" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W10" s="24"/>
       <c r="X10" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y10" s="24"/>
       <c r="Z10" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA10" s="28"/>
       <c r="AB10" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC10" s="24"/>
       <c r="AD10" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE10" s="32"/>
@@ -3382,77 +3290,74 @@
       <c r="B11" s="22">
         <v>4</v>
       </c>
-      <c r="C11" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C11" s="43"/>
       <c r="D11" s="37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E11" s="38" t="str">
-        <f t="shared" ref="E11:E41" si="14">IF(ISERROR(D11/C11),"",IF(D11&gt;=C11,"√","×"))</f>
+        <f t="shared" ref="E11:E41" si="13">IF(ISERROR(D11/C11),"",IF(D11&gt;=C11,"√","×"))</f>
         <v/>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="35"/>
       <c r="H11" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="28"/>
       <c r="P11" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="24"/>
       <c r="R11" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S11" s="28"/>
       <c r="T11" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U11" s="24"/>
       <c r="V11" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W11" s="24"/>
       <c r="X11" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y11" s="24"/>
       <c r="Z11" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA11" s="28"/>
       <c r="AB11" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC11" s="24"/>
       <c r="AD11" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE11" s="32"/>
@@ -3461,77 +3366,74 @@
       <c r="B12" s="22">
         <v>5</v>
       </c>
-      <c r="C12" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C12" s="43"/>
       <c r="D12" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E12" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E12" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="36"/>
       <c r="H12" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S12" s="28"/>
       <c r="T12" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U12" s="24"/>
       <c r="V12" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W12" s="24"/>
       <c r="X12" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y12" s="24"/>
       <c r="Z12" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA12" s="28"/>
       <c r="AB12" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC12" s="24"/>
       <c r="AD12" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE12" s="32"/>
@@ -3540,77 +3442,74 @@
       <c r="B13" s="22">
         <v>6</v>
       </c>
-      <c r="C13" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C13" s="43"/>
       <c r="D13" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E13" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E13" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="36"/>
       <c r="H13" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="28"/>
       <c r="P13" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="28"/>
       <c r="T13" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U13" s="24"/>
       <c r="V13" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W13" s="24"/>
       <c r="X13" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y13" s="24"/>
       <c r="Z13" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA13" s="28"/>
       <c r="AB13" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC13" s="24"/>
       <c r="AD13" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE13" s="32"/>
@@ -3619,77 +3518,74 @@
       <c r="B14" s="22">
         <v>7</v>
       </c>
-      <c r="C14" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C14" s="43"/>
       <c r="D14" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E14" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E14" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="28"/>
       <c r="P14" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S14" s="28"/>
       <c r="T14" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W14" s="24"/>
       <c r="X14" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA14" s="28"/>
       <c r="AB14" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE14" s="32"/>
@@ -3698,77 +3594,74 @@
       <c r="B15" s="22">
         <v>8</v>
       </c>
-      <c r="C15" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C15" s="43"/>
       <c r="D15" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E15" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E15" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="36"/>
       <c r="H15" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="28"/>
       <c r="P15" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="24"/>
       <c r="R15" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S15" s="28"/>
       <c r="T15" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="24"/>
       <c r="V15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W15" s="24"/>
       <c r="X15" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y15" s="24"/>
       <c r="Z15" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA15" s="28"/>
       <c r="AB15" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC15" s="24"/>
       <c r="AD15" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE15" s="32"/>
@@ -3777,77 +3670,74 @@
       <c r="B16" s="22">
         <v>9</v>
       </c>
-      <c r="C16" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C16" s="43"/>
       <c r="D16" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E16" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E16" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="36"/>
       <c r="H16" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="24"/>
       <c r="N16" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="28"/>
       <c r="P16" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S16" s="28"/>
       <c r="T16" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U16" s="24"/>
       <c r="V16" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W16" s="24"/>
       <c r="X16" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y16" s="24"/>
       <c r="Z16" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA16" s="28"/>
       <c r="AB16" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC16" s="24"/>
       <c r="AD16" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE16" s="32"/>
@@ -3856,77 +3746,74 @@
       <c r="B17" s="22">
         <v>10</v>
       </c>
-      <c r="C17" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C17" s="43"/>
       <c r="D17" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E17" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E17" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="36"/>
       <c r="H17" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="28"/>
       <c r="P17" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17" s="24"/>
       <c r="R17" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S17" s="28"/>
       <c r="T17" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U17" s="24"/>
       <c r="V17" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="24"/>
       <c r="X17" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y17" s="24"/>
       <c r="Z17" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA17" s="28"/>
       <c r="AB17" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC17" s="24"/>
       <c r="AD17" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE17" s="32"/>
@@ -3935,16 +3822,16 @@
       <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
+      <c r="C18" s="43" t="str">
+        <f>IF(ISERROR(AVERAGE(C8:C17)),"",AVERAGE(C8:C17))</f>
+        <v/>
       </c>
       <c r="D18" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E18" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E18" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F18" s="39">
@@ -3952,51 +3839,51 @@
         <v>0</v>
       </c>
       <c r="G18" s="39">
-        <f t="shared" ref="G18:H18" si="15">SUM(G8:G17)</f>
+        <f t="shared" ref="G18:H18" si="14">SUM(G8:G17)</f>
         <v>0</v>
       </c>
       <c r="H18" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" ref="I18:AC18" si="15">SUM(I8:I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="42">
+        <f t="shared" ref="J18:J41" si="16">IF($H18=0,0,I18/$H18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I18" s="25">
-        <f t="shared" ref="I18:AC18" si="16">SUM(I8:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="42">
-        <f t="shared" ref="J18:J41" si="17">IF($H18=0,0,I18/$H18)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="L18" s="42">
-        <f t="shared" ref="L18:L41" si="18">IF($H18=0,0,K18/$H18)</f>
+        <f t="shared" ref="L18:L41" si="17">IF($H18=0,0,K18/$H18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N18" s="42">
-        <f t="shared" ref="N18:N41" si="19">IF($H18=0,0,M18/$H18)</f>
+        <f t="shared" ref="N18:N41" si="18">IF($H18=0,0,M18/$H18)</f>
         <v>0</v>
       </c>
       <c r="O18" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P18" s="42">
-        <f t="shared" ref="P18:P41" si="20">IF($H18=0,0,O18/$H18)</f>
+        <f t="shared" ref="P18:P41" si="19">IF($H18=0,0,O18/$H18)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R18" s="42">
-        <f t="shared" ref="R18:R41" si="21">IF($H18=0,0,Q18/$H18)</f>
+        <f t="shared" ref="R18:R41" si="20">IF($H18=0,0,Q18/$H18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="25">
@@ -4004,31 +3891,31 @@
         <v>0</v>
       </c>
       <c r="T18" s="42">
-        <f t="shared" ref="T18:T41" si="22">IF($H18=0,0,S18/$H18)</f>
+        <f t="shared" ref="T18:T41" si="21">IF($H18=0,0,S18/$H18)</f>
         <v>0</v>
       </c>
       <c r="U18" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V18" s="42">
-        <f t="shared" ref="V18:V41" si="23">IF($H18=0,0,U18/$H18)</f>
+        <f t="shared" ref="V18:V41" si="22">IF($H18=0,0,U18/$H18)</f>
         <v>0</v>
       </c>
       <c r="W18" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X18" s="42">
-        <f t="shared" ref="X18:X41" si="24">IF($H18=0,0,W18/$H18)</f>
+        <f t="shared" ref="X18:X41" si="23">IF($H18=0,0,W18/$H18)</f>
         <v>0</v>
       </c>
       <c r="Y18" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z18" s="42">
-        <f t="shared" ref="Z18:Z41" si="25">IF($H18=0,0,Y18/$H18)</f>
+        <f t="shared" ref="Z18:Z41" si="24">IF($H18=0,0,Y18/$H18)</f>
         <v>0</v>
       </c>
       <c r="AA18" s="25">
@@ -4036,15 +3923,15 @@
         <v>0</v>
       </c>
       <c r="AB18" s="42">
-        <f t="shared" ref="AB18:AB41" si="26">IF($H18=0,0,AA18/$H18)</f>
+        <f t="shared" ref="AB18:AB41" si="25">IF($H18=0,0,AA18/$H18)</f>
         <v>0</v>
       </c>
       <c r="AC18" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD18" s="42">
-        <f t="shared" ref="AD18:AD41" si="27">IF($H18=0,0,AC18/$H18)</f>
+        <f t="shared" ref="AD18:AD41" si="26">IF($H18=0,0,AC18/$H18)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="32"/>
@@ -4053,77 +3940,74 @@
       <c r="B19" s="22">
         <v>11</v>
       </c>
-      <c r="C19" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C19" s="43"/>
       <c r="D19" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E19" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E19" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
       <c r="H19" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="28"/>
       <c r="P19" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q19" s="24"/>
       <c r="R19" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S19" s="28"/>
       <c r="T19" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="24"/>
       <c r="V19" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W19" s="24"/>
       <c r="X19" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y19" s="24"/>
       <c r="Z19" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA19" s="28"/>
       <c r="AB19" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC19" s="24"/>
       <c r="AD19" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE19" s="32"/>
@@ -4132,77 +4016,74 @@
       <c r="B20" s="22">
         <v>12</v>
       </c>
-      <c r="C20" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C20" s="43"/>
       <c r="D20" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E20" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E20" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
       <c r="H20" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="24"/>
       <c r="N20" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="28"/>
       <c r="P20" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20" s="24"/>
       <c r="R20" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S20" s="28"/>
       <c r="T20" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U20" s="24"/>
       <c r="V20" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W20" s="24"/>
       <c r="X20" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y20" s="24"/>
       <c r="Z20" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA20" s="28"/>
       <c r="AB20" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC20" s="24"/>
       <c r="AD20" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE20" s="32"/>
@@ -4211,77 +4092,74 @@
       <c r="B21" s="22">
         <v>13</v>
       </c>
-      <c r="C21" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C21" s="43"/>
       <c r="D21" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E21" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E21" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="28"/>
       <c r="P21" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q21" s="24"/>
       <c r="R21" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S21" s="28"/>
       <c r="T21" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U21" s="24"/>
       <c r="V21" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21" s="24"/>
       <c r="X21" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y21" s="24"/>
       <c r="Z21" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA21" s="28"/>
       <c r="AB21" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC21" s="24"/>
       <c r="AD21" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE21" s="32"/>
@@ -4290,77 +4168,74 @@
       <c r="B22" s="22">
         <v>14</v>
       </c>
-      <c r="C22" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C22" s="43"/>
       <c r="D22" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E22" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E22" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S22" s="28"/>
       <c r="T22" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W22" s="24"/>
       <c r="X22" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA22" s="28"/>
       <c r="AB22" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE22" s="32"/>
@@ -4369,77 +4244,74 @@
       <c r="B23" s="22">
         <v>15</v>
       </c>
-      <c r="C23" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C23" s="43"/>
       <c r="D23" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E23" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E23" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="28"/>
       <c r="P23" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q23" s="24"/>
       <c r="R23" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S23" s="28"/>
       <c r="T23" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U23" s="24"/>
       <c r="V23" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W23" s="24"/>
       <c r="X23" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y23" s="24"/>
       <c r="Z23" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA23" s="28"/>
       <c r="AB23" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC23" s="24"/>
       <c r="AD23" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE23" s="32"/>
@@ -4448,77 +4320,74 @@
       <c r="B24" s="22">
         <v>16</v>
       </c>
-      <c r="C24" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C24" s="43"/>
       <c r="D24" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E24" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E24" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="24"/>
       <c r="L24" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q24" s="24"/>
       <c r="R24" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S24" s="28"/>
       <c r="T24" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U24" s="24"/>
       <c r="V24" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W24" s="24"/>
       <c r="X24" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y24" s="24"/>
       <c r="Z24" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA24" s="28"/>
       <c r="AB24" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC24" s="24"/>
       <c r="AD24" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE24" s="32"/>
@@ -4527,77 +4396,74 @@
       <c r="B25" s="22">
         <v>17</v>
       </c>
-      <c r="C25" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C25" s="43"/>
       <c r="D25" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E25" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E25" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="28"/>
       <c r="P25" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S25" s="28"/>
       <c r="T25" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U25" s="24"/>
       <c r="V25" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W25" s="24"/>
       <c r="X25" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y25" s="24"/>
       <c r="Z25" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA25" s="28"/>
       <c r="AB25" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC25" s="24"/>
       <c r="AD25" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE25" s="32"/>
@@ -4606,77 +4472,74 @@
       <c r="B26" s="22">
         <v>18</v>
       </c>
-      <c r="C26" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C26" s="43"/>
       <c r="D26" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E26" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E26" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="28"/>
       <c r="P26" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S26" s="28"/>
       <c r="T26" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W26" s="24"/>
       <c r="X26" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA26" s="28"/>
       <c r="AB26" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE26" s="32"/>
@@ -4685,77 +4548,74 @@
       <c r="B27" s="22">
         <v>19</v>
       </c>
-      <c r="C27" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C27" s="43"/>
       <c r="D27" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E27" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E27" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q27" s="24"/>
       <c r="R27" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S27" s="28"/>
       <c r="T27" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U27" s="24"/>
       <c r="V27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y27" s="24"/>
       <c r="Z27" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA27" s="28"/>
       <c r="AB27" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC27" s="24"/>
       <c r="AD27" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE27" s="32"/>
@@ -4764,77 +4624,74 @@
       <c r="B28" s="22">
         <v>20</v>
       </c>
-      <c r="C28" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C28" s="43"/>
       <c r="D28" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E28" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E28" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
       <c r="H28" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="24"/>
       <c r="N28" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S28" s="28"/>
       <c r="T28" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U28" s="24"/>
       <c r="V28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W28" s="24"/>
       <c r="X28" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y28" s="24"/>
       <c r="Z28" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA28" s="28"/>
       <c r="AB28" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC28" s="24"/>
       <c r="AD28" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE28" s="32"/>
@@ -4843,16 +4700,16 @@
       <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
+      <c r="C29" s="43" t="str">
+        <f>IF(ISERROR(AVERAGE(C19:C28)),"",AVERAGE(C19:C28))</f>
+        <v/>
       </c>
       <c r="D29" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E29" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E29" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F29" s="39">
@@ -4860,51 +4717,51 @@
         <v>0</v>
       </c>
       <c r="G29" s="39">
-        <f t="shared" ref="G29:H29" si="28">SUM(G19:G28)</f>
+        <f t="shared" ref="G29:H29" si="27">SUM(G19:G28)</f>
         <v>0</v>
       </c>
       <c r="H29" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" ref="I29:AC29" si="28">SUM(I19:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I29" s="25">
-        <f t="shared" ref="I29:AC29" si="29">SUM(I19:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="42">
+      <c r="L29" s="42">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K29" s="25">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="42">
+      <c r="M29" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="42">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M29" s="25">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="42">
+      <c r="O29" s="25">
+        <f t="shared" ref="O29" si="29">SUM(O19:O28)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="42">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O29" s="25">
-        <f t="shared" ref="O29" si="30">SUM(O19:O28)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="42">
+      <c r="Q29" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="42">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="25">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="42">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S29" s="25">
@@ -4912,31 +4769,31 @@
         <v>0</v>
       </c>
       <c r="T29" s="42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="42">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U29" s="25">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="42">
+      <c r="W29" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="42">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W29" s="25">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="42">
+      <c r="Y29" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="42">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="25">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="42">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA29" s="25">
@@ -4944,15 +4801,15 @@
         <v>0</v>
       </c>
       <c r="AB29" s="42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="42">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="25">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="42">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AE29" s="32"/>
@@ -4961,77 +4818,74 @@
       <c r="B30" s="22">
         <v>21</v>
       </c>
-      <c r="C30" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C30" s="43"/>
       <c r="D30" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E30" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E30" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="24"/>
       <c r="N30" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="28"/>
       <c r="P30" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S30" s="28"/>
       <c r="T30" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U30" s="24"/>
       <c r="V30" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W30" s="24"/>
       <c r="X30" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y30" s="24"/>
       <c r="Z30" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA30" s="28"/>
       <c r="AB30" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC30" s="24"/>
       <c r="AD30" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE30" s="32"/>
@@ -5040,77 +4894,74 @@
       <c r="B31" s="22">
         <v>22</v>
       </c>
-      <c r="C31" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C31" s="43"/>
       <c r="D31" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E31" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E31" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="28"/>
       <c r="P31" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S31" s="28"/>
       <c r="T31" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31" s="24"/>
       <c r="V31" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W31" s="24"/>
       <c r="X31" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y31" s="24"/>
       <c r="Z31" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA31" s="28"/>
       <c r="AB31" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC31" s="24"/>
       <c r="AD31" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE31" s="32"/>
@@ -5119,77 +4970,74 @@
       <c r="B32" s="22">
         <v>23</v>
       </c>
-      <c r="C32" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C32" s="43"/>
       <c r="D32" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E32" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E32" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="24"/>
       <c r="L32" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="28"/>
       <c r="P32" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32" s="24"/>
       <c r="R32" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S32" s="28"/>
       <c r="T32" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U32" s="24"/>
       <c r="V32" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W32" s="24"/>
       <c r="X32" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y32" s="24"/>
       <c r="Z32" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA32" s="28"/>
       <c r="AB32" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC32" s="24"/>
       <c r="AD32" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE32" s="32"/>
@@ -5198,77 +5046,74 @@
       <c r="B33" s="22">
         <v>24</v>
       </c>
-      <c r="C33" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C33" s="43"/>
       <c r="D33" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E33" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E33" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
       <c r="H33" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M33" s="24"/>
       <c r="N33" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O33" s="28"/>
       <c r="P33" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33" s="24"/>
       <c r="R33" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S33" s="28"/>
       <c r="T33" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U33" s="24"/>
       <c r="V33" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W33" s="24"/>
       <c r="X33" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y33" s="24"/>
       <c r="Z33" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA33" s="28"/>
       <c r="AB33" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC33" s="24"/>
       <c r="AD33" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE33" s="32"/>
@@ -5277,77 +5122,74 @@
       <c r="B34" s="22">
         <v>25</v>
       </c>
-      <c r="C34" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C34" s="43"/>
       <c r="D34" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E34" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E34" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="28"/>
       <c r="P34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q34" s="24"/>
       <c r="R34" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S34" s="28"/>
       <c r="T34" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U34" s="24"/>
       <c r="V34" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W34" s="24"/>
       <c r="X34" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y34" s="24"/>
       <c r="Z34" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA34" s="28"/>
       <c r="AB34" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC34" s="24"/>
       <c r="AD34" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE34" s="32"/>
@@ -5356,77 +5198,74 @@
       <c r="B35" s="22">
         <v>26</v>
       </c>
-      <c r="C35" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C35" s="43"/>
       <c r="D35" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E35" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E35" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
       <c r="H35" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M35" s="24"/>
       <c r="N35" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O35" s="28"/>
       <c r="P35" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q35" s="24"/>
       <c r="R35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S35" s="28"/>
       <c r="T35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U35" s="24"/>
       <c r="V35" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W35" s="24"/>
       <c r="X35" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y35" s="24"/>
       <c r="Z35" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA35" s="28"/>
       <c r="AB35" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC35" s="24"/>
       <c r="AD35" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE35" s="32"/>
@@ -5435,77 +5274,74 @@
       <c r="B36" s="22">
         <v>27</v>
       </c>
-      <c r="C36" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C36" s="43"/>
       <c r="D36" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E36" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E36" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
       <c r="H36" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="24"/>
       <c r="L36" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O36" s="28"/>
       <c r="P36" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q36" s="24"/>
       <c r="R36" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S36" s="28"/>
       <c r="T36" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U36" s="24"/>
       <c r="V36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W36" s="24"/>
       <c r="X36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y36" s="24"/>
       <c r="Z36" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA36" s="28"/>
       <c r="AB36" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC36" s="24"/>
       <c r="AD36" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE36" s="32"/>
@@ -5514,77 +5350,74 @@
       <c r="B37" s="22">
         <v>28</v>
       </c>
-      <c r="C37" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C37" s="43"/>
       <c r="D37" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E37" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E37" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M37" s="24"/>
       <c r="N37" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O37" s="28"/>
       <c r="P37" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q37" s="24"/>
       <c r="R37" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S37" s="28"/>
       <c r="T37" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U37" s="24"/>
       <c r="V37" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W37" s="24"/>
       <c r="X37" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y37" s="24"/>
       <c r="Z37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA37" s="28"/>
       <c r="AB37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC37" s="24"/>
       <c r="AD37" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE37" s="32"/>
@@ -5593,77 +5426,74 @@
       <c r="B38" s="22">
         <v>29</v>
       </c>
-      <c r="C38" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C38" s="43"/>
       <c r="D38" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E38" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E38" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
       <c r="H38" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="24"/>
       <c r="L38" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O38" s="28"/>
       <c r="P38" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q38" s="24"/>
       <c r="R38" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S38" s="28"/>
       <c r="T38" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W38" s="24"/>
       <c r="X38" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y38" s="24"/>
       <c r="Z38" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA38" s="28"/>
       <c r="AB38" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC38" s="24"/>
       <c r="AD38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE38" s="32"/>
@@ -5672,77 +5502,74 @@
       <c r="B39" s="22">
         <v>30</v>
       </c>
-      <c r="C39" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C39" s="43"/>
       <c r="D39" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E39" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E39" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
       <c r="H39" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O39" s="28"/>
       <c r="P39" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q39" s="24"/>
       <c r="R39" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S39" s="28"/>
       <c r="T39" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U39" s="24"/>
       <c r="V39" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W39" s="24"/>
       <c r="X39" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y39" s="24"/>
       <c r="Z39" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA39" s="28"/>
       <c r="AB39" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC39" s="24"/>
       <c r="AD39" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE39" s="32"/>
@@ -5751,77 +5578,74 @@
       <c r="B40" s="22">
         <v>31</v>
       </c>
-      <c r="C40" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C40" s="43"/>
       <c r="D40" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E40" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E40" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
       <c r="H40" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="24"/>
       <c r="L40" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M40" s="24"/>
       <c r="N40" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O40" s="28"/>
       <c r="P40" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q40" s="24"/>
       <c r="R40" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S40" s="28"/>
       <c r="T40" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U40" s="24"/>
       <c r="V40" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W40" s="24"/>
       <c r="X40" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y40" s="24"/>
       <c r="Z40" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA40" s="28"/>
       <c r="AB40" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC40" s="24"/>
       <c r="AD40" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE40" s="32"/>
@@ -5830,16 +5654,16 @@
       <c r="B41" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="43">
-        <f t="shared" si="0"/>
-        <v>76</v>
+      <c r="C41" s="43" t="str">
+        <f>IF(ISERROR(AVERAGE(C30:C40)),"",AVERAGE(C30:C40))</f>
+        <v/>
       </c>
       <c r="D41" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E41" s="38" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E41" s="38" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F41" s="39">
@@ -5847,133 +5671,133 @@
         <v>0</v>
       </c>
       <c r="G41" s="39">
-        <f t="shared" ref="G41:H41" si="31">SUM(G30:G40)</f>
+        <f t="shared" ref="G41:H41" si="30">SUM(G30:G40)</f>
         <v>0</v>
       </c>
       <c r="H41" s="39">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="25">
+        <f t="shared" ref="I41:AC41" si="31">SUM(I30:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="25">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I41" s="25">
-        <f t="shared" ref="I41:AC41" si="32">SUM(I30:I40)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="42">
+      <c r="L41" s="42">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="42">
+      <c r="M41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="42">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="42">
+      <c r="O41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="42">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="42">
+      <c r="Q41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="42">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="42">
+      <c r="S41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="42">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="42">
+      <c r="U41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="42">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="42">
+      <c r="W41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="42">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="42">
+      <c r="Y41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="42">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="42">
+      <c r="AA41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="42">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="42">
+      <c r="AC41" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="42">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC41" s="25">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="42">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
       <c r="AE41" s="32"/>
     </row>
-    <row r="42" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="37" t="str">
-        <f t="shared" ref="C42" si="33">IF(ISERROR(E42/F42),"",E42/F42*100)</f>
+      <c r="C42" s="78" t="str">
+        <f>IF(ISERROR(AVERAGE(C18,C29,C41)),"",AVERAGE(C18,C29,C41))</f>
         <v/>
       </c>
       <c r="D42" s="38" t="str">
-        <f t="shared" ref="D42" si="34">IF(ISERROR(C42/B42),"",IF(C42&gt;=B42,"√","×"))</f>
-        <v/>
-      </c>
-      <c r="E42" s="40">
-        <f>SUM(E18,E29,E41)</f>
-        <v>0</v>
+        <f t="shared" ref="D42" si="32">IF(ISERROR(C42/B42),"",IF(C42&gt;=B42,"√","×"))</f>
+        <v/>
+      </c>
+      <c r="E42" s="40" t="str">
+        <f>IF(ISERROR(D42/C42),"",IF(D42&gt;=C42,"√","×"))</f>
+        <v/>
       </c>
       <c r="F42" s="40">
-        <f t="shared" ref="F42:G42" si="35">SUM(F18,F29,F41)</f>
+        <f t="shared" ref="F42:G42" si="33">SUM(F18,F29,F41)</f>
         <v>0</v>
       </c>
       <c r="G42" s="40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H42" s="27">
-        <f t="shared" ref="H42:AC42" si="36">SUM(H18,H29,H41)</f>
+        <f t="shared" ref="H42:AC42" si="34">SUM(H18,H29,H41)</f>
         <v>0</v>
       </c>
       <c r="I42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J42" s="29">
@@ -5981,321 +5805,312 @@
         <v>0</v>
       </c>
       <c r="K42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L42" s="29">
-        <f t="shared" ref="L42" si="37">IF($H42=0,0,K42/$H42)</f>
+        <f t="shared" ref="L42" si="35">IF($H42=0,0,K42/$H42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N42" s="29">
-        <f t="shared" ref="N42" si="38">IF($H42=0,0,M42/$H42)</f>
+        <f t="shared" ref="N42" si="36">IF($H42=0,0,M42/$H42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P42" s="30">
-        <f t="shared" ref="P42" si="39">IF($H42=0,0,O42/$H42)</f>
+        <f t="shared" ref="P42" si="37">IF($H42=0,0,O42/$H42)</f>
         <v>0</v>
       </c>
       <c r="Q42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R42" s="29">
-        <f t="shared" ref="R42" si="40">IF($H42=0,0,Q42/$H42)</f>
+        <f t="shared" ref="R42" si="38">IF($H42=0,0,Q42/$H42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T42" s="30">
-        <f t="shared" ref="T42" si="41">IF($H42=0,0,S42/$H42)</f>
+        <f t="shared" ref="T42" si="39">IF($H42=0,0,S42/$H42)</f>
         <v>0</v>
       </c>
       <c r="U42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="V42" s="29">
-        <f t="shared" ref="V42" si="42">IF($H42=0,0,U42/$H42)</f>
+        <f t="shared" ref="V42" si="40">IF($H42=0,0,U42/$H42)</f>
         <v>0</v>
       </c>
       <c r="W42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X42" s="29">
-        <f t="shared" ref="X42" si="43">IF($H42=0,0,W42/$H42)</f>
+        <f t="shared" ref="X42" si="41">IF($H42=0,0,W42/$H42)</f>
         <v>0</v>
       </c>
       <c r="Y42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z42" s="29">
-        <f t="shared" ref="Z42" si="44">IF($H42=0,0,Y42/$H42)</f>
+        <f t="shared" ref="Z42" si="42">IF($H42=0,0,Y42/$H42)</f>
         <v>0</v>
       </c>
       <c r="AA42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AB42" s="30">
-        <f t="shared" ref="AB42" si="45">IF($H42=0,0,AA42/$H42)</f>
+        <f t="shared" ref="AB42" si="43">IF($H42=0,0,AA42/$H42)</f>
         <v>0</v>
       </c>
       <c r="AC42" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD42" s="29">
-        <f t="shared" ref="AD42" si="46">IF($H42=0,0,AC42/$H42)</f>
+        <f t="shared" ref="AD42" si="44">IF($H42=0,0,AC42/$H42)</f>
         <v>0</v>
       </c>
       <c r="AE42" s="33"/>
     </row>
-    <row r="43" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="69" t="s">
+    <row r="43" spans="2:31" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="62"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="57"/>
     </row>
     <row r="45" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="65"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="60"/>
     </row>
     <row r="46" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="65"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="60"/>
     </row>
     <row r="47" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="60"/>
     </row>
     <row r="48" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="65"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
     </row>
     <row r="49" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="60"/>
     </row>
     <row r="50" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="65"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="60"/>
     </row>
     <row r="51" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="65"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
     </row>
     <row r="52" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="65"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="60"/>
     </row>
     <row r="53" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="65"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="60"/>
     </row>
     <row r="54" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="65"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="60"/>
     </row>
     <row r="55" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="65"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="60"/>
     </row>
     <row r="56" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="65"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="60"/>
     </row>
     <row r="57" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="63"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="65"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="60"/>
     </row>
     <row r="58" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="65"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="60"/>
     </row>
     <row r="59" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="68"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B44:L59"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="I3:P3"/>
     <mergeCell ref="Q3:Z3"/>
@@ -6312,6 +6127,15 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="B44:L59"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6325,7 +6149,7 @@
   <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6445,7 +6269,9 @@
     <row r="5" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="44" t="s">
+        <v>56</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="44" t="s">
@@ -6462,10 +6288,7 @@
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="46">
-        <f>$C$2</f>
-        <v>80</v>
-      </c>
+      <c r="C6" s="46"/>
       <c r="D6" s="47" t="str">
         <f>IF(ISERROR(F6/G6),"",F6/G6*100)</f>
         <v/>
@@ -6484,16 +6307,13 @@
       <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="46">
-        <f t="shared" ref="C7:C17" si="0">$C$2</f>
-        <v>80</v>
-      </c>
+      <c r="C7" s="46"/>
       <c r="D7" s="47" t="str">
-        <f t="shared" ref="D7:D17" si="1">IF(ISERROR(F7/G7),"",F7/G7*100)</f>
+        <f t="shared" ref="D7:D17" si="0">IF(ISERROR(F7/G7),"",F7/G7*100)</f>
         <v/>
       </c>
       <c r="E7" s="48" t="str">
-        <f t="shared" ref="E7:E18" si="2">IF(ISERROR(D7/C7),"",IF(D7&gt;=C7,"√","×"))</f>
+        <f t="shared" ref="E7:E18" si="1">IF(ISERROR(D7/C7),"",IF(D7&gt;=C7,"√","×"))</f>
         <v/>
       </c>
       <c r="F7" s="48"/>
@@ -6506,16 +6326,13 @@
       <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D8" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E8" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F8" s="48"/>
@@ -6528,16 +6345,13 @@
       <c r="B9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="46"/>
+      <c r="D9" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D9" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E9" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F9" s="48"/>
@@ -6550,16 +6364,13 @@
       <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D10" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E10" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E10" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F10" s="48"/>
@@ -6572,16 +6383,13 @@
       <c r="B11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D11" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E11" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F11" s="48"/>
@@ -6594,16 +6402,13 @@
       <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D12" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E12" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F12" s="48"/>
@@ -6616,16 +6421,13 @@
       <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D13" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E13" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E13" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F13" s="48"/>
@@ -6638,16 +6440,13 @@
       <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="46"/>
+      <c r="D14" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D14" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E14" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E14" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F14" s="48"/>
@@ -6660,16 +6459,13 @@
       <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D15" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E15" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E15" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F15" s="48"/>
@@ -6682,16 +6478,13 @@
       <c r="B16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="46"/>
+      <c r="D16" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D16" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E16" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E16" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F16" s="48"/>
@@ -6704,16 +6497,13 @@
       <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D17" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E17" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E17" s="48" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F17" s="48"/>
@@ -6726,17 +6516,17 @@
       <c r="B18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="50">
-        <f>AVERAGE(C6:C17)</f>
-        <v>80</v>
+      <c r="C18" s="50" t="str">
+        <f>IF(ISERROR(AVERAGE(C6:C17)),"",AVERAGE(C6:C17))</f>
+        <v/>
       </c>
       <c r="D18" s="51">
-        <f t="shared" ref="D18" si="3">IF(G18=0,0,F18/G18*100)</f>
+        <f t="shared" ref="D18" si="2">IF(G18=0,0,F18/G18*100)</f>
         <v>0</v>
       </c>
       <c r="E18" s="52" t="str">
-        <f t="shared" si="2"/>
-        <v>×</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="F18" s="52">
         <f>SUM(F6:F17)</f>
